--- a/biology/Médecine/Fascia_antébrachial/Fascia_antébrachial.xlsx
+++ b/biology/Médecine/Fascia_antébrachial/Fascia_antébrachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fascia_ant%C3%A9brachial</t>
+          <t>Fascia_antébrachial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia antébrachial est la gaine fasciale superficielle de l'avant-bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fascia_ant%C3%A9brachial</t>
+          <t>Fascia_antébrachial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia antébrachial est en continuité en haut avec le fascia brachial et en bas avec le rétinaculum des fléchisseurs et le rétinaculum des extenseurs. Une partie épaissie sur la face palmaire du poignet forme le ligament palmaire du carpe.
 Il s'insère en arrière à l'olécrane et au bord dorsal de l'ulna.
